--- a/data/out/kate/2001_zurich_extracted.xlsx
+++ b/data/out/kate/2001_zurich_extracted.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:X97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,45 +505,55 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>wr_time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>wr_athlete</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>wr_nat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>wr_city</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>wr_date</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>mr_time</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>mr_athlete</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>mr_nat</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>mr_date</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>athlete_surname</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>athlete_name</t>
         </is>
@@ -587,8 +597,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>37120</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -601,43 +613,49 @@
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="V2" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>gorban</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>boris</t>
         </is>
@@ -681,8 +699,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>37120</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -695,43 +715,49 @@
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="V3" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>plawgo</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>marek</t>
         </is>
@@ -775,8 +801,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>37120</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -789,43 +817,49 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="V4" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>weakly</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>ian</t>
         </is>
@@ -869,8 +903,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>37120</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -883,43 +919,49 @@
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="V5" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>muzik</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>jiri</t>
         </is>
@@ -963,8 +1005,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>37120</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -977,43 +1021,49 @@
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="V6" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>machtchenko</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>rouslan</t>
         </is>
@@ -1057,8 +1107,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J7" s="2" t="n">
-        <v>37120</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1071,43 +1123,49 @@
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="V7" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>herbert</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>llewellyn</t>
         </is>
@@ -1151,8 +1209,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J8" s="2" t="n">
-        <v>37120</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1165,43 +1225,49 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="V8" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>ottoz</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>laurent</t>
         </is>
@@ -1245,8 +1311,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>37120</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1259,43 +1327,49 @@
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="V9" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>theodore</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>olivier jean</t>
         </is>
@@ -1335,8 +1409,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J10" s="2" t="n">
-        <v>37120</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1353,43 +1429,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="R10" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>ojokolo</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>endurance</t>
         </is>
@@ -1429,8 +1511,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J11" s="2" t="n">
-        <v>37120</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1447,43 +1531,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="R11" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>onyali</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>mary</t>
         </is>
@@ -1523,8 +1613,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J12" s="2" t="n">
-        <v>37120</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1541,43 +1633,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="R12" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n">
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>jenkins</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>latasha</t>
         </is>
@@ -1617,8 +1715,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J13" s="2" t="n">
-        <v>37120</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1635,43 +1735,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="R13" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>miller</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>inger</t>
         </is>
@@ -1711,8 +1817,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J14" s="2" t="n">
-        <v>37120</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1729,43 +1837,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="R14" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="n">
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>mcdonald</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>beverly</t>
         </is>
@@ -1805,8 +1919,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J15" s="2" t="n">
-        <v>37120</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1823,43 +1939,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="R15" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n">
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>donders</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>mireille</t>
         </is>
@@ -1899,8 +2021,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J16" s="2" t="n">
-        <v>37120</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1917,43 +2041,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="R16" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n">
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>mani</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>myriam</t>
         </is>
@@ -1993,8 +2123,10 @@
           <t>B-Series</t>
         </is>
       </c>
-      <c r="J17" s="2" t="n">
-        <v>37120</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -2011,43 +2143,49 @@
           <t>+1,1</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>Florence Griffith-Joyner</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="R17" s="2" t="n">
         <v>32340</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>Evelyn Ashford</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n">
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
         <v>30916</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>rockmeier</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>gabi</t>
         </is>
@@ -2087,8 +2225,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J18" s="2" t="n">
-        <v>37120</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2105,43 +2245,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="R18" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n">
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>wallace</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>dawane</t>
         </is>
@@ -2181,8 +2327,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J19" s="2" t="n">
-        <v>37120</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2199,43 +2347,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="R19" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n">
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>hernandez</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>yoel</t>
         </is>
@@ -2275,8 +2429,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J20" s="2" t="n">
-        <v>37120</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2293,43 +2449,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="R20" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n">
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>bownes</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>shaun</t>
         </is>
@@ -2369,8 +2531,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J21" s="2" t="n">
-        <v>37120</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2387,43 +2551,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="R21" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="n">
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>kronberg</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>robert</t>
         </is>
@@ -2463,8 +2633,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J22" s="2" t="n">
-        <v>37120</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2481,43 +2653,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="R22" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="n">
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>lichtenegger</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>elmar</t>
         </is>
@@ -2557,8 +2735,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J23" s="2" t="n">
-        <v>37120</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2575,43 +2755,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="R23" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="n">
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>pechonkin</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>yevgeniy</t>
         </is>
@@ -2651,8 +2837,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J24" s="2" t="n">
-        <v>37120</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2669,43 +2857,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="R24" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="n">
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>videnov</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>zhivko</t>
         </is>
@@ -2745,8 +2939,10 @@
           <t>11Om     B-Series</t>
         </is>
       </c>
-      <c r="J25" s="2" t="n">
-        <v>37120</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2763,43 +2959,49 @@
           <t>+0,7</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="R25" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="n">
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>bitzi</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>ivan</t>
         </is>
@@ -2841,8 +3043,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J26" s="2" t="n">
-        <v>37120</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2859,43 +3063,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N26" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="R26" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="n">
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>montgomery</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>tim</t>
         </is>
@@ -2937,8 +3147,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J27" s="2" t="n">
-        <v>37120</v>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2955,43 +3167,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="R27" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="n">
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>zakari</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>abdul aziz</t>
         </is>
@@ -3033,8 +3251,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J28" s="2" t="n">
-        <v>37120</v>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -3051,43 +3271,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="R28" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="n">
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>asahara</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>nobuharu</t>
         </is>
@@ -3129,8 +3355,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J29" s="2" t="n">
-        <v>37120</v>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3147,43 +3375,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="R29" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="n">
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>shirvington</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>matt</t>
         </is>
@@ -3223,8 +3457,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J30" s="2" t="n">
-        <v>37120</v>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3241,43 +3477,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="n">
+      <c r="R30" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="n">
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>lewis</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>brian</t>
         </is>
@@ -3317,8 +3559,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J31" s="2" t="n">
-        <v>37120</v>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3335,43 +3579,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="R31" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="n">
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>eyana</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>jerome</t>
         </is>
@@ -3411,8 +3661,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J32" s="2" t="n">
-        <v>37120</v>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3429,43 +3681,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="R32" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="n">
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>devonish</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>marlon</t>
         </is>
@@ -3505,8 +3763,10 @@
           <t>Heat 1</t>
         </is>
       </c>
-      <c r="J33" s="2" t="n">
-        <v>37120</v>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3523,43 +3783,49 @@
           <t>+0,1</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="n">
+      <c r="R33" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="n">
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>dubois</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>daniel</t>
         </is>
@@ -3601,8 +3867,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J34" s="2" t="n">
-        <v>37120</v>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3619,43 +3887,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N34" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="n">
+      <c r="R34" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="n">
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>chambers</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>dwain</t>
         </is>
@@ -3697,8 +3971,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J35" s="2" t="n">
-        <v>37120</v>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3715,43 +3991,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N35" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="n">
+      <c r="R35" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T35" s="2" t="n">
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>douglas</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>troy</t>
         </is>
@@ -3793,8 +4075,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J36" s="2" t="n">
-        <v>37120</v>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3811,43 +4095,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q36" s="2" t="n">
+      <c r="R36" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="n">
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>emedolu</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>uchenna</t>
         </is>
@@ -3889,8 +4179,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J37" s="2" t="n">
-        <v>37120</v>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3907,43 +4199,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q37" s="2" t="n">
+      <c r="R37" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="n">
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>collins</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>kim</t>
         </is>
@@ -3983,8 +4281,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J38" s="2" t="n">
-        <v>37120</v>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -4001,43 +4301,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N38" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="n">
+      <c r="R38" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="n">
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>mitchell</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>dennis</t>
         </is>
@@ -4077,8 +4383,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J39" s="2" t="n">
-        <v>37120</v>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4095,43 +4403,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="n">
+      <c r="R39" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="n">
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>goebel</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>tim</t>
         </is>
@@ -4171,8 +4485,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J40" s="2" t="n">
-        <v>37120</v>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4189,43 +4505,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N40" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q40" s="2" t="n">
+      <c r="R40" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T40" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="n">
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>clerc</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>patric</t>
         </is>
@@ -4265,8 +4587,10 @@
           <t>Heat 2</t>
         </is>
       </c>
-      <c r="J41" s="2" t="n">
-        <v>37120</v>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4283,43 +4607,49 @@
           <t>-1,6</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N41" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="n">
+      <c r="R41" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T41" s="2" t="n">
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>patros</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>david</t>
         </is>
@@ -4355,8 +4685,10 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" s="2" t="n">
-        <v>37120</v>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4373,43 +4705,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q42" s="2" t="n">
+      <c r="R42" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="n">
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>williams</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>bernard</t>
         </is>
@@ -4445,8 +4783,10 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" s="2" t="n">
-        <v>37120</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4463,43 +4803,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N43" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q43" s="2" t="n">
+      <c r="R43" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T43" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="n">
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>malcolm</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>christian</t>
         </is>
@@ -4535,8 +4881,10 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" s="2" t="n">
-        <v>37120</v>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4553,43 +4901,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N44" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="n">
+      <c r="R44" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T44" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="n">
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>kenteris</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>konstantinos</t>
         </is>
@@ -4625,8 +4979,10 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" s="2" t="n">
-        <v>37120</v>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4643,43 +4999,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N45" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="n">
+      <c r="R45" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="n">
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>crawford</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>shawn</t>
         </is>
@@ -4715,8 +5077,10 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" s="2" t="n">
-        <v>37120</v>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4733,43 +5097,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N46" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O46" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="n">
+      <c r="R46" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="n">
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>williams</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>christopher</t>
         </is>
@@ -4805,8 +5175,10 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" s="2" t="n">
-        <v>37120</v>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4823,43 +5195,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N47" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="n">
+      <c r="R47" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="n">
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V47" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>little</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>kevin</t>
         </is>
@@ -4895,8 +5273,10 @@
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" s="2" t="n">
-        <v>37120</v>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4913,43 +5293,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="n">
+      <c r="R48" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T48" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="n">
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>buckland</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>stephane</t>
         </is>
@@ -4985,8 +5371,10 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" s="2" t="n">
-        <v>37120</v>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -5003,43 +5391,49 @@
           <t>-1,1</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N49" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="n">
+      <c r="R49" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>Mike Marsh</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="n">
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="n">
         <v>33835</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>fredericks</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>frank</t>
         </is>
@@ -5081,8 +5475,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J50" s="2" t="n">
-        <v>37120</v>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5099,43 +5495,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N50" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="n">
+      <c r="R50" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T50" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="n">
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>montgomery</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>tim</t>
         </is>
@@ -5175,8 +5577,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J51" s="2" t="n">
-        <v>37120</v>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5193,43 +5597,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N51" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O51" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="n">
+      <c r="R51" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T51" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="n">
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>chambers</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="X51" t="inlineStr">
         <is>
           <t>dwain</t>
         </is>
@@ -5269,8 +5679,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J52" s="2" t="n">
-        <v>37120</v>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5287,43 +5699,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N52" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O52" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q52" s="2" t="n">
+      <c r="R52" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T52" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="n">
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V52" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>zakari</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="X52" t="inlineStr">
         <is>
           <t>abdul aziz</t>
         </is>
@@ -5365,8 +5783,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J53" s="2" t="n">
-        <v>37120</v>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5383,43 +5803,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N53" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O53" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q53" s="2" t="n">
+      <c r="R53" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T53" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="n">
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V53" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>douglas</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="X53" t="inlineStr">
         <is>
           <t>troy</t>
         </is>
@@ -5459,8 +5885,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J54" s="2" t="n">
-        <v>37120</v>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5477,43 +5905,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N54" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O54" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="n">
+      <c r="R54" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T54" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="n">
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V54" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>collins</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>kim</t>
         </is>
@@ -5553,8 +5987,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J55" s="2" t="n">
-        <v>37120</v>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5571,43 +6007,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N55" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O55" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="n">
+      <c r="R55" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T55" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="n">
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V55" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>shirvington</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="X55" t="inlineStr">
         <is>
           <t>matt</t>
         </is>
@@ -5647,8 +6089,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J56" s="2" t="n">
-        <v>37120</v>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5665,43 +6109,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N56" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O56" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="n">
+      <c r="R56" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T56" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="n">
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V56" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>asahara</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="X56" t="inlineStr">
         <is>
           <t>nobuharu</t>
         </is>
@@ -5741,8 +6191,10 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="J57" s="2" t="n">
-        <v>37120</v>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5759,43 +6211,49 @@
           <t>+0,2</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N57" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="O57" t="inlineStr">
         <is>
           <t>Maurice Greene</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>Athenes</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="n">
+      <c r="R57" s="2" t="n">
         <v>36327</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T57" t="inlineStr">
         <is>
           <t>Carl Lewis</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T57" s="2" t="n">
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V57" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>emedolu</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="X57" t="inlineStr">
         <is>
           <t>uchenna</t>
         </is>
@@ -5841,8 +6299,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J58" s="2" t="n">
-        <v>37120</v>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5855,43 +6315,49 @@
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
+      <c r="N58" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O58" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="n">
+      <c r="R58" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T58" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="V58" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>sanchez</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
+      <c r="X58" t="inlineStr">
         <is>
           <t>felix</t>
         </is>
@@ -5935,8 +6401,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J59" s="2" t="n">
-        <v>37120</v>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5949,43 +6417,49 @@
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
+      <c r="N59" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O59" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="n">
+      <c r="R59" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="V59" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>taylor</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
+      <c r="X59" t="inlineStr">
         <is>
           <t>angelo</t>
         </is>
@@ -6029,8 +6503,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J60" s="2" t="n">
-        <v>37120</v>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -6043,43 +6519,49 @@
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
+      <c r="N60" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O60" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q60" s="2" t="n">
+      <c r="R60" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T60" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="V60" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>mori</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
+      <c r="X60" t="inlineStr">
         <is>
           <t>fabrizio</t>
         </is>
@@ -6123,8 +6605,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J61" s="2" t="n">
-        <v>37120</v>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6137,43 +6621,49 @@
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
+      <c r="N61" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O61" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q61" s="2" t="n">
+      <c r="R61" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T61" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="V61" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>tamesue</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="X61" t="inlineStr">
         <is>
           <t>dal</t>
         </is>
@@ -6217,8 +6707,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J62" s="2" t="n">
-        <v>37120</v>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6231,43 +6723,49 @@
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
+      <c r="N62" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q62" s="2" t="n">
+      <c r="R62" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T62" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="V62" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>januszewski</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="X62" t="inlineStr">
         <is>
           <t>pawel</t>
         </is>
@@ -6311,8 +6809,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J63" s="2" t="n">
-        <v>37120</v>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6325,43 +6825,49 @@
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
+      <c r="N63" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O63" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q63" s="2" t="n">
+      <c r="R63" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T63" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="V63" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>rawlinson</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="X63" t="inlineStr">
         <is>
           <t>chris</t>
         </is>
@@ -6405,8 +6911,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J64" s="2" t="n">
-        <v>37120</v>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6419,43 +6927,49 @@
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
+      <c r="N64" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q64" s="2" t="n">
+      <c r="R64" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T64" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="V64" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>schelbert</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="X64" t="inlineStr">
         <is>
           <t>marcel</t>
         </is>
@@ -6499,8 +7013,10 @@
           <t>A-Series    (CORRECTED!)</t>
         </is>
       </c>
-      <c r="J65" s="2" t="n">
-        <v>37120</v>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6513,43 +7029,49 @@
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
+      <c r="N65" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="O65" t="inlineStr">
         <is>
           <t>Kevin Young</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
           <t>Barcelone</t>
         </is>
       </c>
-      <c r="Q65" s="2" t="n">
+      <c r="R65" s="2" t="n">
         <v>33822</v>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="T65" t="inlineStr">
         <is>
           <t>Samuel Matete</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>ZAM</t>
         </is>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="V65" s="2" t="n">
         <v>33457</v>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>al-somaily</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>hadi</t>
         </is>
@@ -6593,8 +7115,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J66" s="2" t="n">
-        <v>37120</v>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6611,43 +7135,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N66" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O66" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q66" s="2" t="n">
+      <c r="R66" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T66" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="n">
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>johnson</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="X66" t="inlineStr">
         <is>
           <t>allen</t>
         </is>
@@ -6691,8 +7221,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J67" s="2" t="n">
-        <v>37120</v>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6709,43 +7241,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N67" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O67" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q67" s="2" t="n">
+      <c r="R67" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T67" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="n">
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V67" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>trammell</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="X67" t="inlineStr">
         <is>
           <t>terrance</t>
         </is>
@@ -6789,8 +7327,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J68" s="2" t="n">
-        <v>37120</v>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6807,43 +7347,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N68" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O68" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q68" s="2" t="n">
+      <c r="R68" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T68" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T68" s="2" t="n">
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V68" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>wade</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="X68" t="inlineStr">
         <is>
           <t>larry</t>
         </is>
@@ -6887,8 +7433,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J69" s="2" t="n">
-        <v>37120</v>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6905,43 +7453,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N69" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O69" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q69" s="2" t="n">
+      <c r="R69" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T69" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T69" s="2" t="n">
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V69" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>dorival</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="X69" t="inlineStr">
         <is>
           <t>dudley</t>
         </is>
@@ -6985,8 +7539,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J70" s="2" t="n">
-        <v>37120</v>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -7003,43 +7559,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N70" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O70" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q70" s="2" t="n">
+      <c r="R70" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="S70" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T70" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T70" s="2" t="n">
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V70" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>jackson</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
+      <c r="X70" t="inlineStr">
         <is>
           <t>colin</t>
         </is>
@@ -7083,8 +7645,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J71" s="2" t="n">
-        <v>37120</v>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -7101,43 +7665,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N71" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O71" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q71" s="2" t="n">
+      <c r="R71" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T71" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T71" s="2" t="n">
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V71" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>crear</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
+      <c r="X71" t="inlineStr">
         <is>
           <t>mark</t>
         </is>
@@ -7181,8 +7751,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J72" s="2" t="n">
-        <v>37120</v>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7199,43 +7771,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N72" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O72" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q72" s="2" t="n">
+      <c r="R72" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T72" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T72" s="2" t="n">
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V72" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>arnold</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr">
+      <c r="X72" t="inlineStr">
         <is>
           <t>dominique</t>
         </is>
@@ -7279,8 +7857,10 @@
           <t>A-Series</t>
         </is>
       </c>
-      <c r="J73" s="2" t="n">
-        <v>37120</v>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7297,43 +7877,49 @@
           <t>+0,0</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N73" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O73" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q73" s="2" t="n">
+      <c r="R73" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="S73" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T73" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T73" s="2" t="n">
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V73" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>garcia</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr">
+      <c r="X73" t="inlineStr">
         <is>
           <t>anier</t>
         </is>
@@ -7377,8 +7963,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J74" s="2" t="n">
-        <v>37120</v>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7391,43 +7979,49 @@
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
+      <c r="N74" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O74" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q74" s="2" t="n">
+      <c r="R74" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="S74" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T74" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T74" s="2" t="n">
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V74" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>johnson</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="X74" t="inlineStr">
         <is>
           <t>allen</t>
         </is>
@@ -7471,8 +8065,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J75" s="2" t="n">
-        <v>37120</v>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7485,43 +8081,49 @@
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
+      <c r="N75" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O75" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q75" s="2" t="n">
+      <c r="R75" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="S75" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T75" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T75" s="2" t="n">
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V75" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>wallace</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="X75" t="inlineStr">
         <is>
           <t>dawane</t>
         </is>
@@ -7565,8 +8167,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J76" s="2" t="n">
-        <v>37120</v>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7579,43 +8183,49 @@
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
+      <c r="N76" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O76" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q76" s="2" t="n">
+      <c r="R76" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="S76" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T76" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T76" s="2" t="n">
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V76" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>trammell</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
+      <c r="X76" t="inlineStr">
         <is>
           <t>terrance</t>
         </is>
@@ -7659,8 +8269,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J77" s="2" t="n">
-        <v>37120</v>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7673,43 +8285,49 @@
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
+      <c r="N77" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O77" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q77" s="2" t="n">
+      <c r="R77" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T77" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T77" s="2" t="n">
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V77" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>wade</t>
         </is>
       </c>
-      <c r="V77" t="inlineStr">
+      <c r="X77" t="inlineStr">
         <is>
           <t>larry</t>
         </is>
@@ -7753,8 +8371,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J78" s="2" t="n">
-        <v>37120</v>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7767,43 +8387,49 @@
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
+      <c r="N78" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O78" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q78" s="2" t="n">
+      <c r="R78" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T78" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T78" s="2" t="n">
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V78" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>hernandez</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr">
+      <c r="X78" t="inlineStr">
         <is>
           <t>yoel</t>
         </is>
@@ -7847,8 +8473,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J79" s="2" t="n">
-        <v>37120</v>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7861,43 +8489,49 @@
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
+      <c r="N79" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O79" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q79" s="2" t="n">
+      <c r="R79" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T79" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T79" s="2" t="n">
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V79" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="W79" t="inlineStr">
         <is>
           <t>dorival</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr">
+      <c r="X79" t="inlineStr">
         <is>
           <t>dudley</t>
         </is>
@@ -7941,8 +8575,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J80" s="2" t="n">
-        <v>37120</v>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7955,43 +8591,49 @@
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
+      <c r="N80" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O80" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q80" s="2" t="n">
+      <c r="R80" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T80" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T80" s="2" t="n">
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V80" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>bownes</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr">
+      <c r="X80" t="inlineStr">
         <is>
           <t>shaun</t>
         </is>
@@ -8035,8 +8677,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J81" s="2" t="n">
-        <v>37120</v>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -8049,43 +8693,49 @@
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr">
+      <c r="N81" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O81" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q81" s="2" t="n">
+      <c r="R81" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="S81" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T81" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T81" s="2" t="n">
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V81" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>jackson</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr">
+      <c r="X81" t="inlineStr">
         <is>
           <t>colin</t>
         </is>
@@ -8129,8 +8779,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J82" s="2" t="n">
-        <v>37120</v>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -8143,43 +8795,49 @@
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr">
+      <c r="N82" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O82" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q82" s="2" t="n">
+      <c r="R82" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="S82" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T82" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T82" s="2" t="n">
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V82" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>crear</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr">
+      <c r="X82" t="inlineStr">
         <is>
           <t>mark</t>
         </is>
@@ -8223,8 +8881,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J83" s="2" t="n">
-        <v>37120</v>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8237,43 +8897,49 @@
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
+      <c r="N83" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O83" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q83" s="2" t="n">
+      <c r="R83" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="S83" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T83" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T83" s="2" t="n">
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V83" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>arnold</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="X83" t="inlineStr">
         <is>
           <t>dominique</t>
         </is>
@@ -8317,8 +8983,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J84" s="2" t="n">
-        <v>37120</v>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8331,43 +8999,49 @@
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
+      <c r="N84" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O84" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q84" s="2" t="n">
+      <c r="R84" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="S84" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T84" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T84" s="2" t="n">
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V84" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>kronberg</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr">
+      <c r="X84" t="inlineStr">
         <is>
           <t>robert</t>
         </is>
@@ -8411,8 +9085,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J85" s="2" t="n">
-        <v>37120</v>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8425,43 +9101,49 @@
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
+      <c r="N85" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O85" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q85" s="2" t="n">
+      <c r="R85" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="S85" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T85" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T85" s="2" t="n">
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V85" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>lichtenegger</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr">
+      <c r="X85" t="inlineStr">
         <is>
           <t>elmar</t>
         </is>
@@ -8505,8 +9187,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J86" s="2" t="n">
-        <v>37120</v>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8519,43 +9203,49 @@
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
+      <c r="N86" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O86" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q86" s="2" t="n">
+      <c r="R86" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="S86" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T86" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T86" s="2" t="n">
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V86" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U86" t="inlineStr">
+      <c r="W86" t="inlineStr">
         <is>
           <t>pechonkin</t>
         </is>
       </c>
-      <c r="V86" t="inlineStr">
+      <c r="X86" t="inlineStr">
         <is>
           <t>yevgeniy</t>
         </is>
@@ -8599,8 +9289,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J87" s="2" t="n">
-        <v>37120</v>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8613,43 +9305,49 @@
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
+      <c r="N87" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O87" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q87" s="2" t="n">
+      <c r="R87" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="S87" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T87" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T87" s="2" t="n">
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V87" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U87" t="inlineStr">
+      <c r="W87" t="inlineStr">
         <is>
           <t>videnov</t>
         </is>
       </c>
-      <c r="V87" t="inlineStr">
+      <c r="X87" t="inlineStr">
         <is>
           <t>zhivko</t>
         </is>
@@ -8693,8 +9391,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J88" s="2" t="n">
-        <v>37120</v>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8707,43 +9407,49 @@
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
+      <c r="N88" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O88" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q88" s="2" t="n">
+      <c r="R88" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="S88" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T88" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T88" s="2" t="n">
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V88" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U88" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>bitzi</t>
         </is>
       </c>
-      <c r="V88" t="inlineStr">
+      <c r="X88" t="inlineStr">
         <is>
           <t>ivan</t>
         </is>
@@ -8787,8 +9493,10 @@
           <t>Combined Result</t>
         </is>
       </c>
-      <c r="J89" s="2" t="n">
-        <v>37120</v>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8801,43 +9509,49 @@
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
+      <c r="N89" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O89" t="inlineStr">
         <is>
           <t>Colin Jackson</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>GBR</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="Q89" s="2" t="n">
+      <c r="R89" s="2" t="n">
         <v>34201</v>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="S89" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="T89" t="inlineStr">
         <is>
           <t>Roger Kingdom</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="T89" s="2" t="n">
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V89" s="2" t="n">
         <v>32736</v>
       </c>
-      <c r="U89" t="inlineStr">
+      <c r="W89" t="inlineStr">
         <is>
           <t>garcia</t>
         </is>
       </c>
-      <c r="V89" t="inlineStr">
+      <c r="X89" t="inlineStr">
         <is>
           <t>anier</t>
         </is>
@@ -8877,8 +9591,10 @@
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" s="2" t="n">
-        <v>37120</v>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8891,19 +9607,41 @@
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
         <is>
           <t>bidouane</t>
         </is>
       </c>
-      <c r="V90" t="inlineStr">
+      <c r="X90" t="inlineStr">
         <is>
           <t>nezha</t>
         </is>
@@ -8943,8 +9681,10 @@
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" s="2" t="n">
-        <v>37120</v>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8957,19 +9697,41 @@
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
         <is>
           <t>tereshchuk</t>
         </is>
       </c>
-      <c r="V91" t="inlineStr">
+      <c r="X91" t="inlineStr">
         <is>
           <t>tatyana</t>
         </is>
@@ -9009,8 +9771,10 @@
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" s="2" t="n">
-        <v>37120</v>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -9023,19 +9787,41 @@
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
         <is>
           <t>buford-bailey</t>
         </is>
       </c>
-      <c r="V92" t="inlineStr">
+      <c r="X92" t="inlineStr">
         <is>
           <t>tonja</t>
         </is>
@@ -9075,8 +9861,10 @@
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" s="2" t="n">
-        <v>37120</v>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -9089,19 +9877,41 @@
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr">
         <is>
           <t>parris</t>
         </is>
       </c>
-      <c r="V93" t="inlineStr">
+      <c r="X93" t="inlineStr">
         <is>
           <t>debbie-ann</t>
         </is>
@@ -9141,8 +9951,10 @@
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" s="2" t="n">
-        <v>37120</v>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9155,19 +9967,41 @@
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr">
         <is>
           <t>nosova</t>
         </is>
       </c>
-      <c r="V94" t="inlineStr">
+      <c r="X94" t="inlineStr">
         <is>
           <t>yuliya</t>
         </is>
@@ -9207,8 +10041,10 @@
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" s="2" t="n">
-        <v>37120</v>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9221,19 +10057,41 @@
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr">
         <is>
           <t>tirlea</t>
         </is>
       </c>
-      <c r="V95" t="inlineStr">
+      <c r="X95" t="inlineStr">
         <is>
           <t>lonela</t>
         </is>
@@ -9273,8 +10131,10 @@
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" s="2" t="n">
-        <v>37120</v>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9287,19 +10147,41 @@
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr">
         <is>
           <t>glover</t>
         </is>
       </c>
-      <c r="V96" t="inlineStr">
+      <c r="X96" t="inlineStr">
         <is>
           <t>sandra</t>
         </is>
@@ -9339,8 +10221,10 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" s="2" t="n">
-        <v>37120</v>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>17/08/2001</t>
+        </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9353,19 +10237,41 @@
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Kim Batten</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>11.08.1995</t>
+        </is>
+      </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr">
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr">
         <is>
           <t>pernia</t>
         </is>
       </c>
-      <c r="V97" t="inlineStr">
+      <c r="X97" t="inlineStr">
         <is>
           <t>caimi</t>
         </is>
